--- a/html/Tandlægesystemer_excel.XLSX
+++ b/html/Tandlægesystemer_excel.XLSX
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C09DFC-45F9-4320-BA3C-B5E65FD286C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D28B6-0338-441E-81EA-52A12F0A19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Tandlægesystemer">'Opdateret d. 12-05-2025'!$A$1:$H$58</definedName>
+    <definedName name="Tandlægesystemer">'Opdateret d. 16-05-2025'!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
   <si>
     <t>Standard</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Sende</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>Godkendt</t>
   </si>
   <si>
     <t>Binær dokumenttransport</t>
@@ -67,9 +67,6 @@
     <t>BIN01 (B0131X)</t>
   </si>
   <si>
-    <t>Godkendt</t>
-  </si>
-  <si>
     <t>Henvisningsbilag</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Negativ kvittering</t>
@@ -660,29 +657,29 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -693,319 +690,319 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1016,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1030,21 +1027,21 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1052,394 +1049,394 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/html/Tandlægesystemer_excel.XLSX
+++ b/html/Tandlægesystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C92775-ABA1-4DBF-8B54-41F27E586FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F31601-ADB1-4D16-94FF-FD67709FF203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Tandlægesystemer_excel.XLSX
+++ b/html/Tandlægesystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F31601-ADB1-4D16-94FF-FD67709FF203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5DFAB-7DAD-4B39-A380-415A3E2BD7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Tandlægesystemer">'Opdateret d. 02-12-2025'!$A$1:$G$3</definedName>
+    <definedName name="Tandlægesystemer">'Opdateret d. 05-12-2025'!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -409,9 +409,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>

--- a/html/Tandlægesystemer_excel.XLSX
+++ b/html/Tandlægesystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C5DFAB-7DAD-4B39-A380-415A3E2BD7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7061B8-B5DC-4CD6-8C5E-01A095143CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Tandlægesystemer">'Opdateret d. 05-12-2025'!$A$1:$G$3</definedName>
+    <definedName name="Tandlægesystemer">'Opdateret d. 19-12-2025'!$A$1:$G$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -409,9 +409,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -457,7 +457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
